--- a/biology/Botanique/Mycénacée/Mycénacée.xlsx
+++ b/biology/Botanique/Mycénacée/Mycénacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myc%C3%A9nac%C3%A9e</t>
+          <t>Mycénacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mycenaceae sont une famille de champignons de l’ordre des Agaricales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myc%C3%A9nac%C3%A9e</t>
+          <t>Mycénacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom botanique Mycena vient du grec ancien μύκης signifiant « champignon »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom botanique Mycena vient du grec ancien μύκης signifiant « champignon ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myc%C3%A9nac%C3%A9e</t>
+          <t>Mycénacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Mycena sont des champignons grégaires, au chapeau campanulé et au pied fragile. Déliquescents, s'ils sont parfois comestibles, ils ne sont pas mangeables. Certaines espèces sont bioluminescentes.[réf. nécessaire]
 			Mycena galericulata
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Myc%C3%A9nac%C3%A9e</t>
+          <t>Mycénacée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 novembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 novembre 2013) :
 genre Basidopus
 genre Collopus
 genre Cruentomycena
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Myc%C3%A9nac%C3%A9e</t>
+          <t>Mycénacée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,9 +647,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude phylogénétique des Agaricales publiée par un consortium de mycologues a adopté en 2002 le nom Mycenaceae pour un clade  composé de Dictyopanus, Favolaschia, Mycena, Mycenoporella, Prunulus, Panellus, Poromycena et Resinomycena[3]. Dictyopanus a depuis été intégré dans Panellus[4] et Poromycena[5] et Prunulus dans Mycena[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude phylogénétique des Agaricales publiée par un consortium de mycologues a adopté en 2002 le nom Mycenaceae pour un clade  composé de Dictyopanus, Favolaschia, Mycena, Mycenoporella, Prunulus, Panellus, Poromycena et Resinomycena. Dictyopanus a depuis été intégré dans Panellus et Poromycena et Prunulus dans Mycena.
 </t>
         </is>
       </c>
